--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H200_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5060975609756098</v>
+        <v>0.4847560975609756</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.106348802370199</v>
+        <v>0.109428810580372</v>
       </c>
       <c r="J2" t="n">
-        <v>1412.023778117037</v>
+        <v>1484.737828863288</v>
       </c>
       <c r="K2" t="n">
-        <v>2644365.469114869</v>
+        <v>3179159.324294747</v>
       </c>
       <c r="L2" t="n">
-        <v>1626.150506292351</v>
+        <v>1783.019720669053</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5011646448041422</v>
+        <v>0.4002806762978859</v>
       </c>
     </row>
   </sheetData>
